--- a/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
+++ b/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/dkottig_cdisc_org/Documents/01_BC/01_BC_Build/01_eCRF/QRS/ADAS_COG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED79775-E154-46EB-8BB2-A50D75BFA7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{0C216F74-1F79-4372-83E0-A7074A431BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87806D5C-94DD-5D4E-AF71-4C20CE6F515E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_ADAS-COG" sheetId="1" r:id="rId1"/>
     <sheet name="Uniques" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection_ADAS-COG'!$A$1:$AG$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection_ADAS-COG'!$A$1:$AG$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Uniques!$A$1:$E$28</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="335">
   <si>
     <t>package_date</t>
   </si>
@@ -262,21 +262,6 @@
     <t>FTSCAT = Word Recall</t>
   </si>
   <si>
-    <t>ADCRLT01_FTTPT</t>
-  </si>
-  <si>
-    <t>FTTPT</t>
-  </si>
-  <si>
-    <t>Timepoint</t>
-  </si>
-  <si>
-    <t>Trial 1</t>
-  </si>
-  <si>
-    <t>FTTPT = Trial 1</t>
-  </si>
-  <si>
     <t>ADCRLT01_FTORRES</t>
   </si>
   <si>
@@ -307,15 +292,6 @@
     <t>ADCRLT02_FTSCAT</t>
   </si>
   <si>
-    <t>ADCRLT02_FTTPT</t>
-  </si>
-  <si>
-    <t>Trial 2</t>
-  </si>
-  <si>
-    <t>FTTPT = Trial 2</t>
-  </si>
-  <si>
     <t>ADCRLT02_FTORRES</t>
   </si>
   <si>
@@ -337,15 +313,6 @@
     <t>ADCRLT03_FTSCAT</t>
   </si>
   <si>
-    <t>ADCRLT03_FTTPT</t>
-  </si>
-  <si>
-    <t>Trial 3</t>
-  </si>
-  <si>
-    <t>FTTPT = Trial 3</t>
-  </si>
-  <si>
     <t>ADCRLT03_FTORRES</t>
   </si>
   <si>
@@ -445,9 +412,6 @@
     <t>all commands correct ; 1 command incorrect; 2 commands incorrect; 3 commands incorrect; 4 commands incorrect; all 5 commands incorrect</t>
   </si>
   <si>
-    <t>all commands correct;1 command incorrect;2 commands incorrect;3 commands incorrect;4 commands incorrect;all 5 commands incorrect</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCCMD</t>
   </si>
   <si>
@@ -508,9 +472,6 @@
     <t>all 4 drawings correct; 1 form drawn incorrectly; 2 forms drawn incorrectly; 3 forms drawn incorrectly; 4 forms drawn incorrectly (but one or more side/section of at least one shape drawn); No figures drawn, no recognizable attempt at drawing any side/section of any figure</t>
   </si>
   <si>
-    <t>all 4 drawings correct;1 form drawn incorrectly;2 forms drawn incorrectly;3 forms drawn incorrectly;4 forms drawn incorrectly (but one or more side/section of at least one shape drawn);No figures drawn, no recognizable attempt at drawing any side/section of any figure</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCCP</t>
   </si>
   <si>
@@ -541,9 +502,6 @@
     <t>all components performed correctly; failure to perform 1 component; failure to perform 2 components; failure to perform 3 components; failure to perform 4 components; failure to perform 5 components</t>
   </si>
   <si>
-    <t>all components performed correctly;failure to perform 1 component;failure to perform 2 components;failure to perform 3 components;failure to perform 4 components;failure to perform 5 components</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCIP</t>
   </si>
   <si>
@@ -598,9 +556,6 @@
     <t>FTSCAT = Word Recognition</t>
   </si>
   <si>
-    <t>ADCRGT01_FTTPT</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCRGT01</t>
   </si>
   <si>
@@ -619,9 +574,6 @@
     <t>ADCRGT02_FTSCAT</t>
   </si>
   <si>
-    <t>ADCRGT02_FTTPT</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCRGT02</t>
   </si>
   <si>
@@ -640,9 +592,6 @@
     <t>ADCRGT03_FTSCAT</t>
   </si>
   <si>
-    <t>ADCRGT03_FTTPT</t>
-  </si>
-  <si>
     <t>FTORRES when FTTESTCD = ADCRGT03</t>
   </si>
   <si>
@@ -1085,6 +1034,15 @@
   </si>
   <si>
     <t>Alzheimer's Disease Assessment Scale-Cognitive CDISC Version Functional Test</t>
+  </si>
+  <si>
+    <t>All commands correct;1 command incorrect;2 commands incorrect;3 commands incorrect;4 commands incorrect;all 5 commands incorrect</t>
+  </si>
+  <si>
+    <t>All 4 drawings correct;1 form drawn incorrectly;2 forms drawn incorrectly;3 forms drawn incorrectly;4 forms drawn incorrectly (but one or more side/section of at least one shape drawn);No figures drawn, no recognizable attempt at drawing any side/section of any figure</t>
+  </si>
+  <si>
+    <t>All components performed correctly;Failure to perform 1 component;Failure to perform 2 components;Failure to perform 3 components;Failure to perform 4 components;Failure to perform 5 components</t>
   </si>
 </sst>
 </file>
@@ -1495,34 +1453,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="11" max="11" width="29" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="28.1640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,9 +1583,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1637,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
@@ -1666,7 +1626,7 @@
       <c r="T2">
         <v>100</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
       <c r="W2" t="s">
@@ -1688,9 +1648,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -1702,13 +1662,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="M3" t="s">
         <v>50</v>
@@ -1753,9 +1713,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -1767,13 +1727,13 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="M4" t="s">
         <v>59</v>
@@ -1803,9 +1763,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="96" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -1817,19 +1777,19 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="M5" t="s">
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>64</v>
@@ -1862,7 +1822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1891,7 +1851,7 @@
         <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>71</v>
@@ -1908,6 +1868,9 @@
       <c r="T6">
         <v>100</v>
       </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
       <c r="AB6" s="3" t="s">
         <v>72</v>
       </c>
@@ -1918,7 +1881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1946,35 +1909,32 @@
       <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>76</v>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="Q7">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T7">
-        <v>100</v>
-      </c>
-      <c r="V7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -2000,69 +1960,78 @@
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>316</v>
+        <v>105</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2071,113 +2040,111 @@
         <v>44</v>
       </c>
       <c r="T9">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="V10" s="6"/>
+      <c r="AD10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10">
-        <v>100</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="M11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="s">
         <v>43</v>
@@ -2186,173 +2153,173 @@
         <v>44</v>
       </c>
       <c r="T11">
+        <v>200</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12">
         <v>100</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AB12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
         <v>75</v>
       </c>
-      <c r="AE11" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="AD13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q12">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14">
         <v>3</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="AD12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13">
-        <v>200</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
       </c>
       <c r="R14" t="s">
         <v>43</v>
@@ -2361,51 +2328,60 @@
         <v>44</v>
       </c>
       <c r="T14">
-        <v>100</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>72</v>
+        <v>200</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>56</v>
       </c>
       <c r="AD14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" t="s">
-        <v>75</v>
+      <c r="N15" t="s">
+        <v>98</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
         <v>43</v>
@@ -2420,90 +2396,101 @@
         <v>45</v>
       </c>
       <c r="AB15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="80" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
         <v>100</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>345</v>
+      <c r="P16" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
         <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="V16" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
       <c r="AD16" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>104</v>
@@ -2512,13 +2499,13 @@
         <v>63</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s">
         <v>43</v>
@@ -2545,9 +2532,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>106</v>
@@ -2574,7 +2561,7 @@
         <v>70</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>71</v>
@@ -2591,19 +2578,22 @@
       <c r="T18">
         <v>100</v>
       </c>
+      <c r="V18" t="s">
+        <v>45</v>
+      </c>
       <c r="AB18" s="3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="192" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
@@ -2624,16 +2614,16 @@
         <v>107</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>317</v>
+        <v>100</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -2642,7 +2632,7 @@
         <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -2651,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>113</v>
@@ -2660,15 +2650,15 @@
         <v>56</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE19" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
@@ -2695,7 +2685,7 @@
         <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>64</v>
@@ -2728,9 +2718,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>117</v>
@@ -2757,7 +2747,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>71</v>
@@ -2774,6 +2764,9 @@
       <c r="T21">
         <v>100</v>
       </c>
+      <c r="V21" t="s">
+        <v>45</v>
+      </c>
       <c r="AB21" s="3" t="s">
         <v>120</v>
       </c>
@@ -2784,9 +2777,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="195" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2810,13 +2803,13 @@
         <v>122</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -2837,21 +2830,21 @@
         <v>123</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="AA22" t="s">
         <v>56</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>117</v>
@@ -2872,13 +2865,13 @@
         <v>118</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s">
         <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>64</v>
@@ -2911,36 +2904,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
         <v>127</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="M24" t="s">
         <v>70</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>71</v>
@@ -2957,49 +2950,52 @@
       <c r="T24">
         <v>100</v>
       </c>
+      <c r="V24" t="s">
+        <v>45</v>
+      </c>
       <c r="AB24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE24" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" ht="90" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -3008,60 +3004,57 @@
         <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="U25">
         <v>2</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA25" t="s">
         <v>56</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="L26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s">
         <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>64</v>
@@ -3094,36 +3087,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="L27" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="M27" t="s">
         <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>71</v>
@@ -3140,49 +3133,52 @@
       <c r="T27">
         <v>100</v>
       </c>
+      <c r="V27" t="s">
+        <v>45</v>
+      </c>
       <c r="AB27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="160" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="L28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -3191,57 +3187,60 @@
         <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
         <v>2</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="AA28" t="s">
         <v>56</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M29" t="s">
         <v>63</v>
       </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>64</v>
@@ -3274,36 +3273,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C30" t="s">
+      <c r="L30" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="M30" t="s">
         <v>70</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>71</v>
@@ -3320,49 +3319,52 @@
       <c r="T30">
         <v>100</v>
       </c>
+      <c r="V30" t="s">
+        <v>45</v>
+      </c>
       <c r="AB30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" ht="180" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" ht="128" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -3380,51 +3382,51 @@
         <v>2</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
       <c r="AA31" t="s">
         <v>56</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="L32" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
       </c>
       <c r="N32" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>64</v>
@@ -3457,36 +3459,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="M33" t="s">
         <v>70</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>71</v>
@@ -3503,22 +3505,25 @@
       <c r="T33">
         <v>100</v>
       </c>
+      <c r="V33" t="s">
+        <v>45</v>
+      </c>
       <c r="AB33" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" ht="165" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -3530,22 +3535,22 @@
         <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -3554,36 +3559,33 @@
         <v>45</v>
       </c>
       <c r="S34" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T34">
-        <v>5</v>
-      </c>
-      <c r="U34">
         <v>2</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA34" t="s">
         <v>56</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -3595,19 +3597,19 @@
         <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s">
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>64</v>
@@ -3640,12 +3642,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -3657,19 +3659,19 @@
         <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M36" t="s">
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>71</v>
@@ -3686,22 +3688,25 @@
       <c r="T36">
         <v>100</v>
       </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
       <c r="AB36" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AD36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -3713,22 +3718,22 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N37" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -3737,33 +3742,24 @@
         <v>45</v>
       </c>
       <c r="S37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
-      <c r="Y37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>56</v>
-      </c>
       <c r="AD37" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
@@ -3775,19 +3771,19 @@
         <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M38" t="s">
         <v>63</v>
       </c>
       <c r="N38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>64</v>
@@ -3820,12 +3816,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -3837,19 +3833,19 @@
         <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s">
         <v>70</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>71</v>
@@ -3866,22 +3862,25 @@
       <c r="T39">
         <v>100</v>
       </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
       <c r="AB39" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AD39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -3893,51 +3892,48 @@
         <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="3" t="s">
-        <v>76</v>
+      <c r="N40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T40">
-        <v>100</v>
-      </c>
-      <c r="V40" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AD40" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AE40" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -3949,43 +3945,52 @@
         <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="M41" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>324</v>
+        <v>105</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q41">
         <v>3</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S41" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>56</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>180</v>
       </c>
@@ -4008,19 +4013,19 @@
         <v>182</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N42" t="s">
-        <v>116</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="s">
         <v>43</v>
@@ -4029,30 +4034,27 @@
         <v>44</v>
       </c>
       <c r="T42">
-        <v>200</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="V42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
@@ -4064,78 +4066,78 @@
         <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T43">
-        <v>100</v>
-      </c>
-      <c r="AB43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE43" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE43" s="3" t="s">
+    </row>
+    <row r="44" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s">
-        <v>190</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="M44" t="s">
-        <v>75</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="N44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R44" t="s">
         <v>43</v>
@@ -4144,142 +4146,154 @@
         <v>44</v>
       </c>
       <c r="T44">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>187</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N45" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45">
         <v>100</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V45" t="s">
         <v>45</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AB45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M46" t="s">
         <v>75</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="N46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" t="s">
+        <v>101</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="M45" t="s">
-        <v>80</v>
-      </c>
-      <c r="N45" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="R45" t="s">
-        <v>45</v>
-      </c>
-      <c r="S45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M46" t="s">
-        <v>63</v>
-      </c>
-      <c r="N46" t="s">
-        <v>116</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="R46" t="s">
-        <v>43</v>
-      </c>
-      <c r="S46" t="s">
-        <v>44</v>
-      </c>
-      <c r="T46">
-        <v>200</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AA46" t="s">
         <v>56</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -4291,25 +4305,25 @@
         <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47" t="s">
         <v>43</v>
@@ -4318,51 +4332,60 @@
         <v>44</v>
       </c>
       <c r="T47">
-        <v>100</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>56</v>
       </c>
       <c r="AD47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M48" t="s">
         <v>70</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>197</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M48" t="s">
-        <v>75</v>
+      <c r="N48" t="s">
+        <v>98</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" t="s">
         <v>43</v>
@@ -4377,104 +4400,116 @@
         <v>45</v>
       </c>
       <c r="AB48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" ht="144" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
         <v>100</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s">
-        <v>197</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="M49" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>347</v>
+      <c r="P49" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" t="s">
         <v>45</v>
       </c>
       <c r="S49" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
         <v>2</v>
       </c>
+      <c r="Y49" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>56</v>
+      </c>
       <c r="AD49" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" t="s">
-        <v>197</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M50" t="s">
         <v>63</v>
       </c>
       <c r="N50" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R50" t="s">
         <v>43</v>
@@ -4501,12 +4536,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
         <v>34</v>
@@ -4518,19 +4553,19 @@
         <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M51" t="s">
         <v>70</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>71</v>
@@ -4547,22 +4582,25 @@
       <c r="T51">
         <v>100</v>
       </c>
+      <c r="V51" t="s">
+        <v>45</v>
+      </c>
       <c r="AB51" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" ht="90" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" ht="192" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
@@ -4574,22 +4612,22 @@
         <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N52" t="s">
-        <v>111</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>325</v>
+        <v>100</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -4598,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="S52" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="T52">
         <v>5</v>
@@ -4607,27 +4645,27 @@
         <v>2</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
         <v>56</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
@@ -4639,25 +4677,25 @@
         <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M53" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N53" t="s">
-        <v>116</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53" t="s">
         <v>43</v>
@@ -4666,25 +4704,22 @@
         <v>44</v>
       </c>
       <c r="T53">
-        <v>200</v>
-      </c>
-      <c r="Y53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="V53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" ht="224" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>211</v>
       </c>
@@ -4707,40 +4742,49 @@
         <v>213</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M54" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s">
         <v>44</v>
       </c>
       <c r="T54">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>215</v>
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>56</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" ht="165" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>211</v>
       </c>
@@ -4763,54 +4807,51 @@
         <v>213</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M55" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N55" t="s">
-        <v>111</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>326</v>
+        <v>105</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S55" t="s">
         <v>44</v>
       </c>
       <c r="T55">
-        <v>5</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="AA55" t="s">
         <v>56</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AE55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="56" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -4822,25 +4863,25 @@
         <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M56" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N56" t="s">
-        <v>116</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R56" t="s">
         <v>43</v>
@@ -4849,272 +4890,278 @@
         <v>44</v>
       </c>
       <c r="T56">
-        <v>200</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="V56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" ht="224" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" t="s">
-        <v>222</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="M57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s">
         <v>44</v>
       </c>
       <c r="T57">
-        <v>100</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>215</v>
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>56</v>
       </c>
       <c r="AD57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M58" t="s">
         <v>70</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31" ht="225" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>222</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M58" t="s">
-        <v>80</v>
-      </c>
       <c r="N58" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S58" t="s">
         <v>44</v>
       </c>
       <c r="T58">
-        <v>5</v>
-      </c>
-      <c r="U58">
+        <v>100</v>
+      </c>
+      <c r="V58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" ht="288" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>227</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M59" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q59">
         <v>2</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE58" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M59" t="s">
-        <v>70</v>
-      </c>
-      <c r="N59" t="s">
-        <v>109</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
       <c r="R59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S59" t="s">
         <v>44</v>
       </c>
       <c r="T59">
-        <v>100</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>215</v>
+        <v>5</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>56</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31" ht="270" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" t="s">
-        <v>229</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="L60" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N60" t="s">
-        <v>111</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S60" t="s">
         <v>44</v>
       </c>
       <c r="T60">
-        <v>5</v>
-      </c>
-      <c r="U60">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="AA60" t="s">
         <v>56</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AE60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="61" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>228</v>
-      </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
         <v>34</v>
@@ -5126,25 +5173,25 @@
         <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N61" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61" t="s">
         <v>43</v>
@@ -5153,146 +5200,137 @@
         <v>44</v>
       </c>
       <c r="T61">
-        <v>200</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="V61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C62" t="s">
-        <v>237</v>
-      </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" t="s">
-        <v>237</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="L62" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M62" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N62" t="s">
-        <v>109</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62" t="s">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s">
+        <v>76</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M63" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" t="s">
+        <v>105</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s">
         <v>43</v>
-      </c>
-      <c r="S62" t="s">
-        <v>44</v>
-      </c>
-      <c r="T62">
-        <v>100</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE62" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31" ht="255" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s">
-        <v>237</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="M63" t="s">
-        <v>80</v>
-      </c>
-      <c r="N63" t="s">
-        <v>111</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
-      <c r="R63" t="s">
-        <v>45</v>
       </c>
       <c r="S63" t="s">
         <v>44</v>
       </c>
       <c r="T63">
-        <v>5</v>
-      </c>
-      <c r="U63">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="AA63" t="s">
         <v>56</v>
       </c>
       <c r="AD63" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AE63" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>243</v>
       </c>
@@ -5321,7 +5359,7 @@
         <v>70</v>
       </c>
       <c r="N64" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>71</v>
@@ -5338,17 +5376,20 @@
       <c r="T64">
         <v>100</v>
       </c>
+      <c r="V64" t="s">
+        <v>45</v>
+      </c>
       <c r="AB64" s="3" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="AD64" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE64" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" ht="285" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>243</v>
       </c>
@@ -5374,13 +5415,13 @@
         <v>247</v>
       </c>
       <c r="M65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N65" t="s">
-        <v>111</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>330</v>
+        <v>100</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -5389,31 +5430,19 @@
         <v>45</v>
       </c>
       <c r="S65" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T65">
-        <v>5</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-      <c r="Y65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE65" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Z65" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE65" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>243</v>
       </c>
@@ -5436,13 +5465,13 @@
         <v>245</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M66" t="s">
         <v>63</v>
       </c>
       <c r="N66" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>64</v>
@@ -5475,36 +5504,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
         <v>251</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>251</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s">
-        <v>252</v>
-      </c>
-      <c r="K67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="M67" t="s">
         <v>70</v>
       </c>
       <c r="N67" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>71</v>
@@ -5521,49 +5550,52 @@
       <c r="T67">
         <v>100</v>
       </c>
+      <c r="V67" t="s">
+        <v>45</v>
+      </c>
       <c r="AB67" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AD67" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE67" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
         <v>251</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>251</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s">
-        <v>252</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="L68" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N68" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -5572,48 +5604,48 @@
         <v>45</v>
       </c>
       <c r="S68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="AD68" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE68" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
         <v>251</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s">
+        <v>251</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s">
-        <v>252</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="L69" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M69" t="s">
         <v>63</v>
       </c>
       <c r="N69" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>64</v>
@@ -5646,36 +5678,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>258</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C70" t="s">
-        <v>261</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s">
-        <v>261</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="M70" t="s">
         <v>70</v>
       </c>
       <c r="N70" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>71</v>
@@ -5692,49 +5724,52 @@
       <c r="T70">
         <v>100</v>
       </c>
+      <c r="V70" t="s">
+        <v>45</v>
+      </c>
       <c r="AB70" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE70" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s">
-        <v>261</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="M71" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N71" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -5743,24 +5778,24 @@
         <v>45</v>
       </c>
       <c r="S71" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="AD71" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE71" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -5772,19 +5807,19 @@
         <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M72" t="s">
         <v>63</v>
       </c>
       <c r="N72" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>64</v>
@@ -5817,36 +5852,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C73" t="s">
-        <v>268</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s">
-        <v>268</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="M73" t="s">
         <v>70</v>
       </c>
       <c r="N73" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>71</v>
@@ -5863,22 +5898,25 @@
       <c r="T73">
         <v>100</v>
       </c>
+      <c r="V73" t="s">
+        <v>45</v>
+      </c>
       <c r="AB73" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AD73" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE73" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D74" t="s">
         <v>34</v>
@@ -5890,22 +5928,22 @@
         <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N74" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -5914,24 +5952,33 @@
         <v>45</v>
       </c>
       <c r="S74" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
+      <c r="Y74" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>56</v>
+      </c>
       <c r="AD74" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE74" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
@@ -5943,10 +5990,10 @@
         <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>273</v>
@@ -5955,7 +6002,7 @@
         <v>63</v>
       </c>
       <c r="N75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>64</v>
@@ -5988,7 +6035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>274</v>
       </c>
@@ -6017,7 +6064,7 @@
         <v>70</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>71</v>
@@ -6034,17 +6081,20 @@
       <c r="T76">
         <v>100</v>
       </c>
+      <c r="V76" t="s">
+        <v>45</v>
+      </c>
       <c r="AB76" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AE76" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>274</v>
       </c>
@@ -6070,13 +6120,13 @@
         <v>278</v>
       </c>
       <c r="M77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N77" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -6085,19 +6135,19 @@
         <v>45</v>
       </c>
       <c r="S77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="AD77" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AE77" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>274</v>
       </c>
@@ -6123,48 +6173,46 @@
         <v>280</v>
       </c>
       <c r="M78" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="N78" t="s">
-        <v>116</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>64</v>
+        <v>282</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="Q78">
         <v>3</v>
       </c>
       <c r="R78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S78" t="s">
         <v>44</v>
       </c>
       <c r="T78">
-        <v>200</v>
-      </c>
-      <c r="Y78" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z78" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="V78" s="6"/>
+      <c r="AB78" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC78" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="AD78" s="3" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="AE78" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D79" t="s">
         <v>34</v>
@@ -6176,25 +6224,25 @@
         <v>36</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M79" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N79" t="s">
-        <v>109</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R79" t="s">
         <v>43</v>
@@ -6203,178 +6251,172 @@
         <v>44</v>
       </c>
       <c r="T79">
+        <v>200</v>
+      </c>
+      <c r="Y79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE79" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>290</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M80" t="s">
+        <v>70</v>
+      </c>
+      <c r="N80" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s">
+        <v>44</v>
+      </c>
+      <c r="T80">
         <v>100</v>
       </c>
-      <c r="AB79" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD79" s="3" t="s">
+      <c r="V80" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD80" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE79" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" t="s">
-        <v>282</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M80" t="s">
-        <v>80</v>
-      </c>
-      <c r="N80" t="s">
-        <v>111</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q80">
+      <c r="AE80" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>290</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M81" t="s">
+        <v>75</v>
+      </c>
+      <c r="N81" t="s">
+        <v>100</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q81">
         <v>2</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R81" t="s">
         <v>45</v>
       </c>
-      <c r="S80" t="s">
-        <v>81</v>
-      </c>
-      <c r="T80">
+      <c r="S81" t="s">
+        <v>76</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="Y80" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z80" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD80" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE80" s="3" t="s">
+      <c r="AD81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE81" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="81" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L81" s="3" t="s">
+      <c r="C82" t="s">
         <v>290</v>
       </c>
-      <c r="M81" t="s">
-        <v>63</v>
-      </c>
-      <c r="N81" t="s">
-        <v>116</v>
-      </c>
-      <c r="O81" s="3" t="s">
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s">
+        <v>290</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M82" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" t="s">
+        <v>105</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q81">
+      <c r="Q82">
         <v>3</v>
-      </c>
-      <c r="R81" t="s">
-        <v>43</v>
-      </c>
-      <c r="S81" t="s">
-        <v>44</v>
-      </c>
-      <c r="T81">
-        <v>200</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE81" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" t="s">
-        <v>292</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" t="s">
-        <v>292</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M82" t="s">
-        <v>70</v>
-      </c>
-      <c r="N82" t="s">
-        <v>109</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
       </c>
       <c r="R82" t="s">
         <v>43</v>
@@ -6383,366 +6425,26 @@
         <v>44</v>
       </c>
       <c r="T82">
-        <v>100</v>
-      </c>
-      <c r="AB82" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>56</v>
       </c>
       <c r="AD82" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE82" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" t="s">
-        <v>292</v>
-      </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" t="s">
-        <v>292</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M83" t="s">
-        <v>80</v>
-      </c>
-      <c r="N83" t="s">
-        <v>111</v>
-      </c>
-      <c r="P83" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
-      <c r="R83" t="s">
-        <v>45</v>
-      </c>
-      <c r="S83" t="s">
-        <v>81</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
-      <c r="AD83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE83" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="84" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C84" t="s">
-        <v>292</v>
-      </c>
-      <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" t="s">
-        <v>292</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M84" t="s">
-        <v>298</v>
-      </c>
-      <c r="N84" t="s">
-        <v>299</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q84">
-        <v>3</v>
-      </c>
-      <c r="R84" t="s">
-        <v>45</v>
-      </c>
-      <c r="S84" t="s">
-        <v>44</v>
-      </c>
-      <c r="T84">
-        <v>5</v>
-      </c>
-      <c r="V84" s="6"/>
-      <c r="AB84" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC84" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD84" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE84" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" t="s">
-        <v>292</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="M85" t="s">
-        <v>63</v>
-      </c>
-      <c r="N85" t="s">
-        <v>116</v>
-      </c>
-      <c r="O85" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q85">
-        <v>4</v>
-      </c>
-      <c r="R85" t="s">
-        <v>43</v>
-      </c>
-      <c r="S85" t="s">
-        <v>44</v>
-      </c>
-      <c r="T85">
-        <v>200</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z85" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE85" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C86" t="s">
-        <v>307</v>
-      </c>
-      <c r="D86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
-      <c r="H86" t="s">
-        <v>307</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="M86" t="s">
-        <v>70</v>
-      </c>
-      <c r="N86" t="s">
-        <v>109</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86" t="s">
-        <v>43</v>
-      </c>
-      <c r="S86" t="s">
-        <v>44</v>
-      </c>
-      <c r="T86">
-        <v>100</v>
-      </c>
-      <c r="AB86" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE86" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" t="s">
-        <v>307</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" t="s">
-        <v>307</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="M87" t="s">
-        <v>80</v>
-      </c>
-      <c r="N87" t="s">
-        <v>111</v>
-      </c>
-      <c r="P87" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="R87" t="s">
-        <v>45</v>
-      </c>
-      <c r="S87" t="s">
-        <v>81</v>
-      </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="AD87" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE87" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>306</v>
-      </c>
-      <c r="C88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
-      <c r="H88" t="s">
-        <v>307</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="M88" t="s">
-        <v>63</v>
-      </c>
-      <c r="N88" t="s">
-        <v>116</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88" t="s">
-        <v>43</v>
-      </c>
-      <c r="S88" t="s">
-        <v>44</v>
-      </c>
-      <c r="T88">
-        <v>200</v>
-      </c>
-      <c r="Y88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD88" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE88" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG88" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AG82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6756,14 +6458,14 @@
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6780,7 +6482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6794,7 +6496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6812,532 +6514,532 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D28" si="0">_xlfn.REGEXREPLACE(C4,"CDISC ",,1,1)</f>
         <v>ADAS-Cog - Word Recall Trial 2 Subscore</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recall Trial 3 Subscore</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recall Average Score</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Naming Objects and Fingers Summary Score</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Commands Summary Score</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Delayed Word Recall Summary Score</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Constructional Praxis Summary Score</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Ideational Praxis Summary Score</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Orientation Summary Score</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recognition Trial 1 Subscore</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recognition Trial 2 Subscore</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recognition Trial 3 Subscore</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Recognition Summary Score</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Remembering Test Instructions</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Spoken Language Ability</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Word Difficulty in Spontaneous Speech</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Comprehension</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Concentration/Distractibility</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Number Cancellation: Correct</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Number Cancellation: Errors</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Number Cancellation: Remind</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Number Cancellation Summary Score</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Executive Function Maze: Errors</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Executive Function Maze: Time</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ADAS-Cog - Executive Function Maze Summary Score</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:E28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
+++ b/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/dkottig_cdisc_org/Documents/01_BC/01_BC_Build/01_eCRF/QRS/ADAS_COG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{0C216F74-1F79-4372-83E0-A7074A431BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87806D5C-94DD-5D4E-AF71-4C20CE6F515E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB3505-134D-4763-B16C-84D4770970CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_ADAS-COG" sheetId="1" r:id="rId1"/>
-    <sheet name="Uniques" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection_ADAS-COG'!$A$1:$AG$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Uniques!$A$1:$E$28</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="332">
   <si>
     <t>package_date</t>
   </si>
@@ -149,15 +147,6 @@
   </si>
   <si>
     <t>FT</t>
-  </si>
-  <si>
-    <t>ADAS-COG_PERF</t>
-  </si>
-  <si>
-    <t>Alzheimer's Disease Assessment Scale-Cognitive CDISC Version Functional Test Performed</t>
-  </si>
-  <si>
-    <t>ADAS-COG_FTCAT</t>
   </si>
   <si>
     <t>FTCAT</t>
@@ -1072,18 +1061,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1143,14 +1126,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,34 +1438,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42:Q44"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="29" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="28.1640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.1640625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="19.33203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,9 +1566,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="48" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>326</v>
+    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1597,175 +1580,175 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>321</v>
+        <v>328</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T2">
         <v>100</v>
       </c>
       <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" t="s">
         <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="48" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" t="s">
+    </row>
+    <row r="4" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T4">
         <v>10</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="96" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>326</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -1777,169 +1760,169 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T5">
         <v>200</v>
       </c>
       <c r="Y5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="L6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q7">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1951,170 +1934,170 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T8">
         <v>200</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T9">
         <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="9"/>
       <c r="AD10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="105" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="96" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -2126,170 +2109,170 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T11">
         <v>200</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T12">
         <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
         <v>72</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>75</v>
-      </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
-      <c r="V13" s="6"/>
+      <c r="V13" s="9"/>
       <c r="AD13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -2301,152 +2284,152 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T14">
         <v>200</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" t="s">
-        <v>98</v>
-      </c>
       <c r="P15" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T15">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
         <v>72</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="80" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" t="s">
-        <v>75</v>
-      </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -2455,89 +2438,89 @@
         <v>2</v>
       </c>
       <c r="Y16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
         <v>102</v>
       </c>
-      <c r="Z16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" ht="96" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>105</v>
-      </c>
       <c r="O17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q17">
         <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T17">
         <v>200</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -2549,54 +2532,54 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="195" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="192" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -2608,31 +2591,31 @@
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -2641,148 +2624,148 @@
         <v>2</v>
       </c>
       <c r="Y19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Z19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" ht="96" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="M20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T20">
         <v>200</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T21">
         <v>100</v>
       </c>
       <c r="V21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -2794,31 +2777,31 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -2827,27 +2810,27 @@
         <v>2</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -2859,116 +2842,116 @@
         <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T23">
         <v>200</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T24">
         <v>100</v>
       </c>
       <c r="V24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2980,57 +2963,57 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T25">
         <v>2</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -3042,116 +3025,116 @@
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q26">
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T26">
         <v>200</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="M27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T27">
         <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" ht="160" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="180" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -3163,31 +3146,31 @@
         <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T28">
         <v>5</v>
@@ -3196,27 +3179,27 @@
         <v>2</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AA28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -3228,116 +3211,116 @@
         <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T29">
         <v>200</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="M30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T30">
         <v>100</v>
       </c>
       <c r="V30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" ht="128" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" ht="165" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -3349,31 +3332,31 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -3382,27 +3365,27 @@
         <v>2</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -3414,116 +3397,116 @@
         <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q32">
         <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T32">
         <v>200</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>157</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="M33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T33">
         <v>100</v>
       </c>
       <c r="V33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -3535,57 +3518,57 @@
         <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AA34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -3597,116 +3580,116 @@
         <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q35">
         <v>3</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T35">
         <v>200</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s">
-        <v>167</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="M36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T36">
         <v>100</v>
       </c>
       <c r="V36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AD36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -3718,48 +3701,48 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
@@ -3771,116 +3754,116 @@
         <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q38">
         <v>3</v>
       </c>
       <c r="R38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T38">
         <v>200</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" t="s">
-        <v>175</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T39">
         <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE39" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="2:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -3892,48 +3875,48 @@
         <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -3945,116 +3928,116 @@
         <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="M41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q41">
         <v>3</v>
       </c>
       <c r="R41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T41">
         <v>200</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>181</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="M42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T42">
         <v>100</v>
       </c>
       <c r="V42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
@@ -4066,48 +4049,48 @@
         <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q43">
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
@@ -4119,152 +4102,152 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="M44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q44">
         <v>3</v>
       </c>
       <c r="R44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T44">
         <v>200</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>184</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s">
-        <v>187</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="M45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T45">
         <v>100</v>
       </c>
       <c r="V45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="M46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T46">
         <v>5</v>
@@ -4273,27 +4256,27 @@
         <v>2</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AA46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -4305,116 +4288,116 @@
         <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q47">
         <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T47">
         <v>200</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>195</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="M48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T48">
         <v>100</v>
       </c>
       <c r="V48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31" ht="144" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" ht="165" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
         <v>34</v>
@@ -4426,31 +4409,31 @@
         <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q49">
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T49">
         <v>5</v>
@@ -4459,27 +4442,27 @@
         <v>2</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AA49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD49" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
@@ -4491,152 +4474,152 @@
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q50">
         <v>3</v>
       </c>
       <c r="R50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T50">
         <v>200</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD50" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE50" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" t="s">
-        <v>205</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="M51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T51">
         <v>100</v>
       </c>
       <c r="V51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD51" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" ht="192" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" ht="225" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s">
-        <v>205</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="M52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T52">
         <v>5</v>
@@ -4645,122 +4628,122 @@
         <v>2</v>
       </c>
       <c r="Y52" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
         <v>209</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
         <v>209</v>
       </c>
-      <c r="AA52" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE52" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="2:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+      <c r="L53" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" t="s">
-        <v>212</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="M53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T53">
         <v>100</v>
       </c>
       <c r="V53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" ht="224" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" ht="270" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="M54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T54">
         <v>5</v>
@@ -4769,27 +4752,27 @@
         <v>2</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AA54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -4801,152 +4784,152 @@
         <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q55">
         <v>3</v>
       </c>
       <c r="R55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T55">
         <v>200</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>220</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="M56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T56">
         <v>100</v>
       </c>
       <c r="V56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" ht="224" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" ht="255" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>217</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" t="s">
-        <v>220</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="M57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q57">
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T57">
         <v>5</v>
@@ -4955,122 +4938,122 @@
         <v>2</v>
       </c>
       <c r="Y57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
         <v>224</v>
       </c>
-      <c r="AA57" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE57" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="58" spans="2:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+      <c r="L58" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C58" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>227</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="M58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q58">
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T58">
         <v>100</v>
       </c>
       <c r="V58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" ht="288" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" ht="285" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s">
-        <v>227</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="M59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q59">
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T59">
         <v>5</v>
@@ -5079,27 +5062,27 @@
         <v>2</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AA59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
         <v>34</v>
@@ -5111,116 +5094,116 @@
         <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q60">
         <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T60">
         <v>200</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C61" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s">
-        <v>235</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="M61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T61">
         <v>100</v>
       </c>
       <c r="V61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
         <v>34</v>
@@ -5232,48 +5215,48 @@
         <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q62">
         <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE62" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
         <v>34</v>
@@ -5285,169 +5268,169 @@
         <v>36</v>
       </c>
       <c r="H63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T63">
         <v>200</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD63" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE63" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>241</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C64" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s">
-        <v>244</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="M64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T64">
         <v>100</v>
       </c>
       <c r="V64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD64" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE64" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s">
-        <v>244</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="M65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="AD65" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE65" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -5459,169 +5442,169 @@
         <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q66">
         <v>3</v>
       </c>
       <c r="R66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T66">
         <v>200</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD66" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>248</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C67" t="s">
-        <v>251</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s">
-        <v>251</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="M67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T67">
         <v>100</v>
       </c>
       <c r="V67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB67" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD67" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE67" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>248</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s">
-        <v>251</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="M68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q68">
         <v>2</v>
       </c>
       <c r="R68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="AD68" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE68" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -5633,169 +5616,169 @@
         <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q69">
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T69">
         <v>200</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD69" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>255</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C70" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s">
-        <v>258</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="M70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N70" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T70">
         <v>100</v>
       </c>
       <c r="V70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD70" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE70" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s">
-        <v>258</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="M71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q71">
         <v>2</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="AD71" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE71" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -5807,116 +5790,116 @@
         <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q72">
         <v>3</v>
       </c>
       <c r="R72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T72">
         <v>200</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z72" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD72" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE72" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>262</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C73" t="s">
-        <v>265</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="M73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N73" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T73">
         <v>100</v>
       </c>
       <c r="V73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB73" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AD73" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE73" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
         <v>34</v>
@@ -5928,57 +5911,57 @@
         <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q74">
         <v>2</v>
       </c>
       <c r="R74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD74" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE74" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
@@ -5990,403 +5973,403 @@
         <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q75">
         <v>3</v>
       </c>
       <c r="R75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T75">
         <v>200</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z75" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD75" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE75" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s">
+        <v>272</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C76" t="s">
-        <v>275</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s">
-        <v>275</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="M76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N76" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T76">
         <v>100</v>
       </c>
       <c r="V76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AD76" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE76" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>272</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s">
-        <v>275</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="M77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q77">
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="AD77" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE77" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M78" t="s">
+        <v>278</v>
+      </c>
+      <c r="N78" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="78" spans="2:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>274</v>
-      </c>
-      <c r="C78" t="s">
-        <v>275</v>
-      </c>
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s">
-        <v>275</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="P78" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="M78" t="s">
-        <v>281</v>
-      </c>
-      <c r="N78" t="s">
-        <v>282</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="Q78">
         <v>3</v>
       </c>
       <c r="R78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T78">
         <v>5</v>
       </c>
-      <c r="V78" s="6"/>
+      <c r="V78" s="9"/>
       <c r="AB78" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE78" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AC78" s="3" t="s">
+    </row>
+    <row r="79" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>272</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AD78" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE78" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" ht="96" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" t="s">
-        <v>275</v>
-      </c>
-      <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" t="s">
-        <v>275</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="M79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
       <c r="R79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T79">
         <v>200</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>287</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C80" t="s">
-        <v>290</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" t="s">
-        <v>290</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="M80" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T80">
         <v>100</v>
       </c>
       <c r="V80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AD80" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AE80" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>287</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>290</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="M81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE81" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" ht="105" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
         <v>34</v>
@@ -6398,650 +6381,53 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T82">
         <v>200</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z82" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD82" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE82" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B7CCC-EB5A-3949-84EB-FEF5AEBDB542}">
-  <dimension ref="A1:E88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>_xlfn.REGEXREPLACE(C3,"CDISC ",,1,1)</f>
-        <v>ADAS-Cog - Word Recall Trial 1 Subscore</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D28" si="0">_xlfn.REGEXREPLACE(C4,"CDISC ",,1,1)</f>
-        <v>ADAS-Cog - Word Recall Trial 2 Subscore</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recall Trial 3 Subscore</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recall Average Score</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Naming Objects and Fingers Summary Score</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Commands Summary Score</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Delayed Word Recall Summary Score</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Constructional Praxis Summary Score</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Ideational Praxis Summary Score</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Orientation Summary Score</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recognition Trial 1 Subscore</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recognition Trial 2 Subscore</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recognition Trial 3 Subscore</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Recognition Summary Score</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Remembering Test Instructions</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Spoken Language Ability</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Word Difficulty in Spontaneous Speech</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Comprehension</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Concentration/Distractibility</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Number Cancellation: Correct</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Number Cancellation: Errors</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Number Cancellation: Remind</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Number Cancellation Summary Score</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Executive Function Maze: Errors</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Executive Function Maze: Time</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ADAS-Cog - Executive Function Maze Summary Score</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <autoFilter ref="A1:E28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
+++ b/curation/draft/collection/collection_specialization_ADAS_COG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB3505-134D-4763-B16C-84D4770970CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A7E5C-68B0-4B45-BC43-A8E5039A2D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_ADAS-COG" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>FTSTAT</t>
   </si>
   <si>
-    <t>[NOT SUBMITTED]; FTSTAT = NOT DONE when FTTESTCD = FTALL</t>
-  </si>
-  <si>
     <t>FTDTC</t>
   </si>
   <si>
@@ -1032,6 +1029,9 @@
   </si>
   <si>
     <t>All components performed correctly;Failure to perform 1 component;Failure to perform 2 components;Failure to perform 3 components;Failure to perform 4 components;Failure to perform 5 components</t>
+  </si>
+  <si>
+    <t>[NOT SUBMITTED]; FTSTAT = NOT DONE</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1126,14 +1126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,34 +1430,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="11" max="11" width="29" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="28.1640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,9 +1558,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>323</v>
+    <row r="2" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1580,13 +1572,13 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>318</v>
+        <v>327</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
@@ -1631,9 +1623,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>323</v>
+    <row r="3" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -1645,13 +1637,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
@@ -1693,39 +1685,39 @@
         <v>54</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1734,21 +1726,21 @@
         <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4">
         <v>10</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>323</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>322</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -1760,22 +1752,22 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1790,54 +1782,54 @@
         <v>200</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA5" t="s">
         <v>53</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1855,48 +1847,48 @@
         <v>42</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" t="s">
         <v>71</v>
       </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1905,51 +1897,51 @@
         <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="AD7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AE7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -1964,54 +1956,54 @@
         <v>200</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA8" t="s">
         <v>53</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2029,48 +2021,48 @@
         <v>42</v>
       </c>
       <c r="AB9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>96</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2079,52 +2071,51 @@
         <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
-      <c r="V10" s="9"/>
       <c r="AD10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2139,54 +2130,54 @@
         <v>200</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA11" t="s">
         <v>53</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2204,48 +2195,48 @@
         <v>42</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>96</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -2254,52 +2245,51 @@
         <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
-      <c r="V13" s="9"/>
       <c r="AD13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="96" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -2314,54 +2304,54 @@
         <v>200</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA14" t="s">
         <v>53</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
         <v>94</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2379,48 +2369,48 @@
         <v>42</v>
       </c>
       <c r="AB15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:33" ht="80" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="L16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
         <v>96</v>
       </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" t="s">
-        <v>97</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -2429,7 +2419,7 @@
         <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -2438,54 +2428,54 @@
         <v>2</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA16" t="s">
         <v>53</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE16" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" t="s">
         <v>101</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N17" t="s">
-        <v>102</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -2500,54 +2490,54 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA17" t="s">
         <v>53</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N18" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2565,48 +2555,48 @@
         <v>42</v>
       </c>
       <c r="AB18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:31" ht="192" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -2624,54 +2614,54 @@
         <v>2</v>
       </c>
       <c r="Y19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="AA19" t="s">
         <v>53</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" ht="105" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="L20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N20" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -2686,54 +2676,54 @@
         <v>200</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA20" t="s">
         <v>53</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N21" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2751,48 +2741,48 @@
         <v>42</v>
       </c>
       <c r="AB21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE21" s="3" t="s">
+    </row>
+    <row r="22" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="2:31" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -2810,54 +2800,54 @@
         <v>2</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA22" t="s">
         <v>53</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE22" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="M23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N23" t="s">
-        <v>102</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -2872,54 +2862,54 @@
         <v>200</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA23" t="s">
         <v>53</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="M24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2937,48 +2927,48 @@
         <v>42</v>
       </c>
       <c r="AB24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -2987,60 +2977,60 @@
         <v>42</v>
       </c>
       <c r="S25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T25">
         <v>2</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA25" t="s">
         <v>53</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="M26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N26" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -3055,54 +3045,54 @@
         <v>200</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA26" t="s">
         <v>53</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="M27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>95</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -3120,48 +3110,48 @@
         <v>42</v>
       </c>
       <c r="AB27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE27" s="3" t="s">
+    </row>
+    <row r="28" spans="2:31" ht="160" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="2:31" ht="180" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -3179,54 +3169,54 @@
         <v>2</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA28" t="s">
         <v>53</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE28" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="M29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N29" t="s">
-        <v>102</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3241,54 +3231,54 @@
         <v>200</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA29" t="s">
         <v>53</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="M30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N30" t="s">
-        <v>95</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -3306,48 +3296,48 @@
         <v>42</v>
       </c>
       <c r="AB30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AD30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE30" s="3" t="s">
+    </row>
+    <row r="31" spans="2:31" ht="128" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="2:31" ht="165" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -3365,54 +3355,54 @@
         <v>2</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA31" t="s">
         <v>53</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE31" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="M32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N32" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -3427,54 +3417,54 @@
         <v>200</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA32" t="s">
         <v>53</v>
       </c>
       <c r="AD32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="M33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3492,48 +3482,48 @@
         <v>42</v>
       </c>
       <c r="AB33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE33" s="3" t="s">
+    </row>
+    <row r="34" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -3542,60 +3532,60 @@
         <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA34" t="s">
         <v>53</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE34" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="M35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N35" t="s">
-        <v>102</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -3610,54 +3600,54 @@
         <v>200</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA35" t="s">
         <v>53</v>
       </c>
       <c r="AD35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s">
-        <v>164</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="M36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>95</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3675,48 +3665,48 @@
         <v>42</v>
       </c>
       <c r="AB36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE36" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
         <v>163</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s">
-        <v>164</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -3725,51 +3715,51 @@
         <v>42</v>
       </c>
       <c r="S37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s">
-        <v>164</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="M38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" t="s">
+        <v>101</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N38" t="s">
-        <v>102</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -3784,54 +3774,54 @@
         <v>200</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA38" t="s">
         <v>53</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
         <v>171</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="M39" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N39" t="s">
-        <v>95</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -3849,48 +3839,48 @@
         <v>42</v>
       </c>
       <c r="AB39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE39" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s">
-        <v>172</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>326</v>
+        <v>96</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -3899,51 +3889,51 @@
         <v>42</v>
       </c>
       <c r="S40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE40" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="41" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>172</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="M41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" t="s">
+        <v>101</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N41" t="s">
-        <v>102</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -3958,54 +3948,54 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA41" t="s">
         <v>53</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
         <v>177</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="M42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4023,48 +4013,48 @@
         <v>42</v>
       </c>
       <c r="AB42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE42" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE42" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
         <v>177</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s">
-        <v>178</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>327</v>
+        <v>96</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -4073,51 +4063,51 @@
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="AD43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE43" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" t="s">
-        <v>178</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="M44" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N44" t="s">
-        <v>102</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -4132,54 +4122,54 @@
         <v>200</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA44" t="s">
         <v>53</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
         <v>183</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="M45" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N45" t="s">
-        <v>95</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4197,48 +4187,48 @@
         <v>42</v>
       </c>
       <c r="AB45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:31" ht="96" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
         <v>183</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q46">
         <v>2</v>
@@ -4247,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T46">
         <v>5</v>
@@ -4256,54 +4246,54 @@
         <v>2</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA46" t="s">
         <v>53</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE46" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>183</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="M47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N47" t="s">
-        <v>102</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -4318,54 +4308,54 @@
         <v>200</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA47" t="s">
         <v>53</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
         <v>191</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="M48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N48" t="s">
-        <v>95</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4383,48 +4373,48 @@
         <v>42</v>
       </c>
       <c r="AB48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE48" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE48" s="3" t="s">
+    </row>
+    <row r="49" spans="2:31" ht="144" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="2:31" ht="165" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s">
-        <v>192</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="M49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -4442,54 +4432,54 @@
         <v>2</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA49" t="s">
         <v>53</v>
       </c>
       <c r="AD49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE49" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="50" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" t="s">
+        <v>101</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N50" t="s">
-        <v>102</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -4504,54 +4494,54 @@
         <v>200</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA50" t="s">
         <v>53</v>
       </c>
       <c r="AD50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE50" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" t="s">
-        <v>202</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" t="s">
+        <v>94</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N51" t="s">
-        <v>95</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4569,48 +4559,48 @@
         <v>42</v>
       </c>
       <c r="AB51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE51" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE51" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:31" ht="192" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
         <v>201</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s">
-        <v>202</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -4628,54 +4618,54 @@
         <v>2</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA52" t="s">
         <v>53</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE52" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="53" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>208</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" t="s">
-        <v>209</v>
-      </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="M53" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N53" t="s">
-        <v>95</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -4693,48 +4683,48 @@
         <v>42</v>
       </c>
       <c r="AB53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE53" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE53" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:31" ht="224" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
         <v>208</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -4752,54 +4742,54 @@
         <v>2</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA54" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE54" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="55" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" t="s">
-        <v>209</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="M55" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N55" t="s">
-        <v>102</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -4814,54 +4804,54 @@
         <v>200</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA55" t="s">
         <v>53</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
         <v>216</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" t="s">
+        <v>216</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>217</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="M56" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N56" t="s">
-        <v>95</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -4879,48 +4869,48 @@
         <v>42</v>
       </c>
       <c r="AB56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE56" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:31" ht="224" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s">
         <v>216</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" t="s">
-        <v>217</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="L57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -4938,54 +4928,54 @@
         <v>2</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA57" t="s">
         <v>53</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE57" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="58" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>224</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="M58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N58" t="s">
-        <v>95</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -5003,48 +4993,48 @@
         <v>42</v>
       </c>
       <c r="AB58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE58" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE58" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:31" ht="288" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
         <v>223</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s">
-        <v>224</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="L59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -5062,54 +5052,54 @@
         <v>2</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA59" t="s">
         <v>53</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE59" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="60" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>223</v>
-      </c>
-      <c r="C60" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" t="s">
-        <v>224</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="M60" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" t="s">
+        <v>101</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N60" t="s">
-        <v>102</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -5124,54 +5114,54 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA60" t="s">
         <v>53</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
         <v>231</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>231</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s">
-        <v>232</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="M61" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N61" t="s">
-        <v>95</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -5189,48 +5179,48 @@
         <v>42</v>
       </c>
       <c r="AB61" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE61" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AD61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE61" s="3" t="s">
+    </row>
+    <row r="62" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" t="s">
-        <v>232</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -5239,51 +5229,51 @@
         <v>42</v>
       </c>
       <c r="S62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T62">
         <v>3</v>
       </c>
       <c r="AD62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE62" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>231</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="63" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s">
-        <v>232</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="M63" t="s">
+        <v>59</v>
+      </c>
+      <c r="N63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N63" t="s">
-        <v>102</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -5298,54 +5288,54 @@
         <v>200</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA63" t="s">
         <v>53</v>
       </c>
       <c r="AD63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
         <v>240</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>240</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s">
-        <v>241</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="M64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N64" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N64" t="s">
-        <v>95</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -5363,48 +5353,48 @@
         <v>42</v>
       </c>
       <c r="AB64" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE64" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AD64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE64" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
         <v>240</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s">
-        <v>241</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -5413,51 +5403,51 @@
         <v>42</v>
       </c>
       <c r="S65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="AD65" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE65" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s">
+        <v>240</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s">
-        <v>241</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="M66" t="s">
+        <v>59</v>
+      </c>
+      <c r="N66" t="s">
+        <v>101</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N66" t="s">
-        <v>102</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -5472,54 +5462,54 @@
         <v>200</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA66" t="s">
         <v>53</v>
       </c>
       <c r="AD66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" t="s">
         <v>247</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>247</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s">
-        <v>248</v>
-      </c>
-      <c r="K67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="M67" t="s">
+        <v>66</v>
+      </c>
+      <c r="N67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N67" t="s">
-        <v>95</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -5537,48 +5527,48 @@
         <v>42</v>
       </c>
       <c r="AB67" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE67" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AD67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE67" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" t="s">
         <v>247</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>247</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s">
-        <v>248</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="L68" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -5587,51 +5577,51 @@
         <v>42</v>
       </c>
       <c r="S68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="AD68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE68" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s">
+        <v>247</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s">
-        <v>248</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="M69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69" t="s">
+        <v>101</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N69" t="s">
-        <v>102</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -5646,54 +5636,54 @@
         <v>200</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA69" t="s">
         <v>53</v>
       </c>
       <c r="AD69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
         <v>254</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s">
+        <v>254</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s">
-        <v>255</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="M70" t="s">
+        <v>66</v>
+      </c>
+      <c r="N70" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N70" t="s">
-        <v>95</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -5711,48 +5701,48 @@
         <v>42</v>
       </c>
       <c r="AB70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE70" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AD70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE70" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
         <v>254</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s">
+        <v>254</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s">
-        <v>255</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="L71" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -5761,51 +5751,51 @@
         <v>42</v>
       </c>
       <c r="S71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="AD71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE71" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s">
+        <v>254</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s">
-        <v>255</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="M72" t="s">
+        <v>59</v>
+      </c>
+      <c r="N72" t="s">
+        <v>101</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N72" t="s">
-        <v>102</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -5820,54 +5810,54 @@
         <v>200</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z72" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA72" t="s">
         <v>53</v>
       </c>
       <c r="AD72" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE72" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
         <v>261</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>261</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s">
-        <v>262</v>
-      </c>
-      <c r="K73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="M73" t="s">
+        <v>66</v>
+      </c>
+      <c r="N73" t="s">
+        <v>94</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N73" t="s">
-        <v>95</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -5885,48 +5875,48 @@
         <v>42</v>
       </c>
       <c r="AB73" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE73" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AD73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE73" s="3" t="s">
+    </row>
+    <row r="74" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s">
+        <v>261</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>261</v>
-      </c>
-      <c r="C74" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s">
-        <v>262</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="M74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -5935,60 +5925,60 @@
         <v>42</v>
       </c>
       <c r="S74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA74" t="s">
         <v>53</v>
       </c>
       <c r="AD74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE74" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s">
+        <v>261</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s">
-        <v>262</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="M75" t="s">
+        <v>59</v>
+      </c>
+      <c r="N75" t="s">
+        <v>101</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N75" t="s">
-        <v>102</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -6003,54 +5993,54 @@
         <v>200</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z75" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA75" t="s">
         <v>53</v>
       </c>
       <c r="AD75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE75" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
         <v>271</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s">
+        <v>271</v>
+      </c>
+      <c r="K76" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s">
-        <v>272</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="M76" t="s">
+        <v>66</v>
+      </c>
+      <c r="N76" t="s">
+        <v>94</v>
+      </c>
+      <c r="P76" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N76" t="s">
-        <v>95</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -6068,48 +6058,48 @@
         <v>42</v>
       </c>
       <c r="AB76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE76" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE76" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
         <v>271</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>271</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s">
-        <v>272</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="L77" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -6118,51 +6108,51 @@
         <v>42</v>
       </c>
       <c r="S77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="AD77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE77" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>271</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="78" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s">
-        <v>272</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="M78" t="s">
         <v>277</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>278</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -6176,53 +6166,52 @@
       <c r="T78">
         <v>5</v>
       </c>
-      <c r="V78" s="9"/>
       <c r="AB78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC78" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AC78" s="3" t="s">
+      <c r="AD78" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AD78" s="3" t="s">
+      <c r="AE78" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AE78" s="3" t="s">
+    </row>
+    <row r="79" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>271</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" t="s">
-        <v>272</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="M79" t="s">
+        <v>59</v>
+      </c>
+      <c r="N79" t="s">
+        <v>101</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N79" t="s">
-        <v>102</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -6237,54 +6226,54 @@
         <v>200</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA79" t="s">
         <v>53</v>
       </c>
       <c r="AD79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" t="s">
         <v>286</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s">
+        <v>286</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" t="s">
-        <v>287</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="M80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P80" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N80" t="s">
-        <v>95</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -6302,48 +6291,48 @@
         <v>42</v>
       </c>
       <c r="AB80" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE80" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AD80" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE80" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" t="s">
         <v>286</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>286</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s">
-        <v>287</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="L81" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -6352,51 +6341,51 @@
         <v>42</v>
       </c>
       <c r="S81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE81" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" ht="96" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s">
+        <v>286</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="82" spans="2:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>286</v>
-      </c>
-      <c r="C82" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" t="s">
-        <v>287</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="M82" t="s">
+        <v>59</v>
+      </c>
+      <c r="N82" t="s">
+        <v>101</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="N82" t="s">
-        <v>102</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -6411,19 +6400,19 @@
         <v>200</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z82" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA82" t="s">
         <v>53</v>
       </c>
       <c r="AD82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
